--- a/Parte 1/ADP/AEN y AEF/AEN.xlsx
+++ b/Parte 1/ADP/AEN y AEF/AEN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\AEN y AEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProyectos\UAI-2024\Parte 1\ADP\AEN y AEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D60C1-5F7B-443A-82E8-CACF0BBD3C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829C7B0-20B7-4011-A1FB-251F78A55A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej2" sheetId="1" r:id="rId1"/>
@@ -814,18 +814,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -920,6 +908,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6936,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81475DBF-EA15-4926-B815-E88C8A2CC33D}">
   <dimension ref="A1:GX46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EV21" sqref="EV21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6954,114 +6954,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="56" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="53">
         <v>10</v>
       </c>
       <c r="U8" s="11">
@@ -7084,16 +7084,16 @@
       </c>
     </row>
     <row r="9" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="53">
         <v>18</v>
       </c>
       <c r="U9" s="38">
@@ -7108,16 +7108,16 @@
       <c r="AG9" s="21"/>
     </row>
     <row r="10" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="53">
         <v>10</v>
       </c>
       <c r="U10" s="17">
@@ -7140,16 +7140,16 @@
       </c>
     </row>
     <row r="11" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="53">
         <v>5</v>
       </c>
       <c r="F11" s="11">
@@ -7190,16 +7190,16 @@
       </c>
     </row>
     <row r="12" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="53">
         <v>5</v>
       </c>
       <c r="F12" s="16">
@@ -7224,16 +7224,16 @@
       <c r="AB12" s="21"/>
     </row>
     <row r="13" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="53">
         <v>12</v>
       </c>
       <c r="F13" s="17">
@@ -7274,16 +7274,16 @@
       </c>
     </row>
     <row r="14" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="53">
         <v>13</v>
       </c>
       <c r="U14" s="11">
@@ -7396,16 +7396,16 @@
       </c>
     </row>
     <row r="15" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="53">
         <v>12</v>
       </c>
       <c r="U15" s="16">
@@ -7470,16 +7470,16 @@
       <c r="CE15" s="21"/>
     </row>
     <row r="16" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="53">
         <v>10</v>
       </c>
       <c r="U16" s="17">
@@ -7592,58 +7592,58 @@
       </c>
     </row>
     <row r="17" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="53">
         <v>6</v>
       </c>
       <c r="P20" s="11">
@@ -7684,16 +7684,16 @@
       </c>
     </row>
     <row r="21" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="53">
         <v>10</v>
       </c>
       <c r="P21" s="38">
@@ -7718,16 +7718,16 @@
       <c r="AG21" s="21"/>
     </row>
     <row r="22" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="54">
         <v>5</v>
       </c>
       <c r="P22" s="17">
@@ -7768,21 +7768,21 @@
       </c>
     </row>
     <row r="23" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG24" s="67" t="s">
+      <c r="CG24" s="63" t="s">
         <v>0</v>
       </c>
       <c r="CH24" s="32"/>
@@ -7908,7 +7908,7 @@
       <c r="GX24" s="26"/>
     </row>
     <row r="25" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG25" s="68" t="s">
+      <c r="CG25" s="64" t="s">
         <v>1</v>
       </c>
       <c r="CH25" s="27"/>
@@ -8034,7 +8034,7 @@
       <c r="GX25" s="29"/>
     </row>
     <row r="26" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG26" s="68" t="s">
+      <c r="CG26" s="64" t="s">
         <v>2</v>
       </c>
       <c r="CH26" s="27"/>
@@ -8160,7 +8160,7 @@
       <c r="GX26" s="29"/>
     </row>
     <row r="27" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG27" s="68" t="s">
+      <c r="CG27" s="64" t="s">
         <v>3</v>
       </c>
       <c r="CH27" s="27"/>
@@ -8286,7 +8286,7 @@
       <c r="GX27" s="29"/>
     </row>
     <row r="28" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG28" s="68" t="s">
+      <c r="CG28" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CH28" s="27"/>
@@ -8412,7 +8412,7 @@
       <c r="GX28" s="29"/>
     </row>
     <row r="29" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG29" s="68" t="s">
+      <c r="CG29" s="64" t="s">
         <v>5</v>
       </c>
       <c r="CH29" s="27"/>
@@ -8538,7 +8538,7 @@
       <c r="GX29" s="29"/>
     </row>
     <row r="30" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG30" s="68" t="s">
+      <c r="CG30" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CH30" s="27"/>
@@ -8664,7 +8664,7 @@
       <c r="GX30" s="29"/>
     </row>
     <row r="31" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG31" s="68" t="s">
+      <c r="CG31" s="64" t="s">
         <v>7</v>
       </c>
       <c r="CH31" s="27"/>
@@ -8790,7 +8790,7 @@
       <c r="GX31" s="29"/>
     </row>
     <row r="32" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG32" s="68" t="s">
+      <c r="CG32" s="64" t="s">
         <v>8</v>
       </c>
       <c r="CH32" s="27"/>
@@ -8916,7 +8916,7 @@
       <c r="GX32" s="29"/>
     </row>
     <row r="33" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG33" s="68" t="s">
+      <c r="CG33" s="64" t="s">
         <v>9</v>
       </c>
       <c r="CH33" s="27"/>
@@ -9042,7 +9042,7 @@
       <c r="GX33" s="29"/>
     </row>
     <row r="34" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG34" s="68" t="s">
+      <c r="CG34" s="64" t="s">
         <v>10</v>
       </c>
       <c r="CH34" s="27"/>
@@ -9168,7 +9168,7 @@
       <c r="GX34" s="29"/>
     </row>
     <row r="35" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG35" s="68" t="s">
+      <c r="CG35" s="64" t="s">
         <v>28</v>
       </c>
       <c r="CH35" s="27"/>
@@ -9294,7 +9294,7 @@
       <c r="GX35" s="29"/>
     </row>
     <row r="36" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG36" s="68" t="s">
+      <c r="CG36" s="64" t="s">
         <v>29</v>
       </c>
       <c r="CH36" s="27"/>
@@ -9420,7 +9420,7 @@
       <c r="GX36" s="29"/>
     </row>
     <row r="37" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG37" s="68" t="s">
+      <c r="CG37" s="64" t="s">
         <v>30</v>
       </c>
       <c r="CH37" s="27"/>
@@ -9546,7 +9546,7 @@
       <c r="GX37" s="29"/>
     </row>
     <row r="38" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG38" s="68" t="s">
+      <c r="CG38" s="64" t="s">
         <v>31</v>
       </c>
       <c r="CH38" s="27"/>
@@ -9672,7 +9672,7 @@
       <c r="GX38" s="29"/>
     </row>
     <row r="39" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG39" s="68" t="s">
+      <c r="CG39" s="64" t="s">
         <v>32</v>
       </c>
       <c r="CH39" s="27"/>
@@ -9798,7 +9798,7 @@
       <c r="GX39" s="29"/>
     </row>
     <row r="40" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG40" s="68" t="s">
+      <c r="CG40" s="64" t="s">
         <v>33</v>
       </c>
       <c r="CH40" s="27"/>
@@ -9924,7 +9924,7 @@
       <c r="GX40" s="29"/>
     </row>
     <row r="41" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG41" s="68" t="s">
+      <c r="CG41" s="64" t="s">
         <v>41</v>
       </c>
       <c r="CH41" s="27"/>
@@ -10050,7 +10050,7 @@
       <c r="GX41" s="29"/>
     </row>
     <row r="42" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG42" s="68" t="s">
+      <c r="CG42" s="64" t="s">
         <v>43</v>
       </c>
       <c r="CH42" s="27"/>
@@ -10176,7 +10176,7 @@
       <c r="GX42" s="29"/>
     </row>
     <row r="43" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG43" s="68" t="s">
+      <c r="CG43" s="64" t="s">
         <v>45</v>
       </c>
       <c r="CH43" s="27"/>
@@ -10302,136 +10302,136 @@
       <c r="GX43" s="29"/>
     </row>
     <row r="44" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG44" s="69" t="s">
+      <c r="CG44" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="CH44" s="62"/>
-      <c r="CI44" s="63"/>
-      <c r="CJ44" s="63"/>
-      <c r="CK44" s="63"/>
-      <c r="CL44" s="63"/>
-      <c r="CM44" s="63"/>
-      <c r="CN44" s="63"/>
-      <c r="CO44" s="63"/>
-      <c r="CP44" s="63"/>
-      <c r="CQ44" s="63"/>
-      <c r="CR44" s="63"/>
-      <c r="CS44" s="63"/>
-      <c r="CT44" s="63"/>
-      <c r="CU44" s="63"/>
-      <c r="CV44" s="63"/>
-      <c r="CW44" s="63"/>
-      <c r="CX44" s="63"/>
-      <c r="CY44" s="63"/>
-      <c r="CZ44" s="63"/>
-      <c r="DA44" s="63"/>
-      <c r="DB44" s="63"/>
-      <c r="DC44" s="63"/>
-      <c r="DD44" s="63"/>
-      <c r="DE44" s="63"/>
-      <c r="DF44" s="63"/>
-      <c r="DG44" s="63"/>
-      <c r="DH44" s="63"/>
-      <c r="DI44" s="63"/>
-      <c r="DJ44" s="63"/>
-      <c r="DK44" s="63"/>
-      <c r="DL44" s="63"/>
-      <c r="DM44" s="63"/>
-      <c r="DN44" s="63"/>
-      <c r="DO44" s="63"/>
-      <c r="DP44" s="63"/>
-      <c r="DQ44" s="63"/>
-      <c r="DR44" s="63"/>
-      <c r="DS44" s="63"/>
-      <c r="DT44" s="63"/>
-      <c r="DU44" s="63"/>
-      <c r="DV44" s="63"/>
-      <c r="DW44" s="63"/>
-      <c r="DX44" s="63"/>
-      <c r="DY44" s="63"/>
-      <c r="DZ44" s="63"/>
-      <c r="EA44" s="63"/>
-      <c r="EB44" s="63"/>
-      <c r="EC44" s="63"/>
-      <c r="ED44" s="63"/>
-      <c r="EE44" s="63"/>
-      <c r="EF44" s="63"/>
-      <c r="EG44" s="63"/>
-      <c r="EH44" s="63"/>
-      <c r="EI44" s="63"/>
-      <c r="EJ44" s="63"/>
-      <c r="EK44" s="63"/>
-      <c r="EL44" s="63"/>
-      <c r="EM44" s="63"/>
-      <c r="EN44" s="63"/>
-      <c r="EO44" s="63"/>
-      <c r="EP44" s="63"/>
-      <c r="EQ44" s="63"/>
-      <c r="ER44" s="63"/>
-      <c r="ES44" s="63"/>
-      <c r="ET44" s="63"/>
-      <c r="EU44" s="63"/>
-      <c r="EV44" s="63"/>
-      <c r="EW44" s="63"/>
-      <c r="EX44" s="63"/>
-      <c r="EY44" s="63"/>
-      <c r="EZ44" s="63"/>
-      <c r="FA44" s="63"/>
-      <c r="FB44" s="63"/>
-      <c r="FC44" s="63"/>
-      <c r="FD44" s="63"/>
-      <c r="FE44" s="63"/>
-      <c r="FF44" s="63"/>
-      <c r="FG44" s="63"/>
-      <c r="FH44" s="63"/>
-      <c r="FI44" s="63"/>
-      <c r="FJ44" s="63"/>
-      <c r="FK44" s="63"/>
-      <c r="FL44" s="63"/>
-      <c r="FM44" s="63"/>
-      <c r="FN44" s="63"/>
-      <c r="FO44" s="63"/>
-      <c r="FP44" s="63"/>
-      <c r="FQ44" s="63"/>
-      <c r="FR44" s="63"/>
-      <c r="FS44" s="63"/>
-      <c r="FT44" s="63"/>
-      <c r="FU44" s="63"/>
-      <c r="FV44" s="63"/>
-      <c r="FW44" s="63"/>
-      <c r="FX44" s="63"/>
-      <c r="FY44" s="63"/>
-      <c r="FZ44" s="63"/>
-      <c r="GA44" s="63"/>
-      <c r="GB44" s="63"/>
-      <c r="GC44" s="63"/>
-      <c r="GD44" s="63"/>
-      <c r="GE44" s="63"/>
-      <c r="GF44" s="63"/>
-      <c r="GG44" s="63"/>
-      <c r="GH44" s="63"/>
-      <c r="GI44" s="63"/>
-      <c r="GJ44" s="63"/>
-      <c r="GK44" s="63"/>
-      <c r="GL44" s="63"/>
-      <c r="GM44" s="63"/>
-      <c r="GN44" s="63"/>
-      <c r="GO44" s="63"/>
-      <c r="GP44" s="63"/>
-      <c r="GQ44" s="64"/>
-      <c r="GR44" s="64"/>
-      <c r="GS44" s="64"/>
-      <c r="GT44" s="64"/>
-      <c r="GU44" s="64"/>
-      <c r="GV44" s="75"/>
-      <c r="GW44" s="75"/>
-      <c r="GX44" s="65"/>
+      <c r="CH44" s="58"/>
+      <c r="CI44" s="59"/>
+      <c r="CJ44" s="59"/>
+      <c r="CK44" s="59"/>
+      <c r="CL44" s="59"/>
+      <c r="CM44" s="59"/>
+      <c r="CN44" s="59"/>
+      <c r="CO44" s="59"/>
+      <c r="CP44" s="59"/>
+      <c r="CQ44" s="59"/>
+      <c r="CR44" s="59"/>
+      <c r="CS44" s="59"/>
+      <c r="CT44" s="59"/>
+      <c r="CU44" s="59"/>
+      <c r="CV44" s="59"/>
+      <c r="CW44" s="59"/>
+      <c r="CX44" s="59"/>
+      <c r="CY44" s="59"/>
+      <c r="CZ44" s="59"/>
+      <c r="DA44" s="59"/>
+      <c r="DB44" s="59"/>
+      <c r="DC44" s="59"/>
+      <c r="DD44" s="59"/>
+      <c r="DE44" s="59"/>
+      <c r="DF44" s="59"/>
+      <c r="DG44" s="59"/>
+      <c r="DH44" s="59"/>
+      <c r="DI44" s="59"/>
+      <c r="DJ44" s="59"/>
+      <c r="DK44" s="59"/>
+      <c r="DL44" s="59"/>
+      <c r="DM44" s="59"/>
+      <c r="DN44" s="59"/>
+      <c r="DO44" s="59"/>
+      <c r="DP44" s="59"/>
+      <c r="DQ44" s="59"/>
+      <c r="DR44" s="59"/>
+      <c r="DS44" s="59"/>
+      <c r="DT44" s="59"/>
+      <c r="DU44" s="59"/>
+      <c r="DV44" s="59"/>
+      <c r="DW44" s="59"/>
+      <c r="DX44" s="59"/>
+      <c r="DY44" s="59"/>
+      <c r="DZ44" s="59"/>
+      <c r="EA44" s="59"/>
+      <c r="EB44" s="59"/>
+      <c r="EC44" s="59"/>
+      <c r="ED44" s="59"/>
+      <c r="EE44" s="59"/>
+      <c r="EF44" s="59"/>
+      <c r="EG44" s="59"/>
+      <c r="EH44" s="59"/>
+      <c r="EI44" s="59"/>
+      <c r="EJ44" s="59"/>
+      <c r="EK44" s="59"/>
+      <c r="EL44" s="59"/>
+      <c r="EM44" s="59"/>
+      <c r="EN44" s="59"/>
+      <c r="EO44" s="59"/>
+      <c r="EP44" s="59"/>
+      <c r="EQ44" s="59"/>
+      <c r="ER44" s="59"/>
+      <c r="ES44" s="59"/>
+      <c r="ET44" s="59"/>
+      <c r="EU44" s="59"/>
+      <c r="EV44" s="59"/>
+      <c r="EW44" s="59"/>
+      <c r="EX44" s="59"/>
+      <c r="EY44" s="59"/>
+      <c r="EZ44" s="59"/>
+      <c r="FA44" s="59"/>
+      <c r="FB44" s="59"/>
+      <c r="FC44" s="59"/>
+      <c r="FD44" s="59"/>
+      <c r="FE44" s="59"/>
+      <c r="FF44" s="59"/>
+      <c r="FG44" s="59"/>
+      <c r="FH44" s="59"/>
+      <c r="FI44" s="59"/>
+      <c r="FJ44" s="59"/>
+      <c r="FK44" s="59"/>
+      <c r="FL44" s="59"/>
+      <c r="FM44" s="59"/>
+      <c r="FN44" s="59"/>
+      <c r="FO44" s="59"/>
+      <c r="FP44" s="59"/>
+      <c r="FQ44" s="59"/>
+      <c r="FR44" s="59"/>
+      <c r="FS44" s="59"/>
+      <c r="FT44" s="59"/>
+      <c r="FU44" s="59"/>
+      <c r="FV44" s="59"/>
+      <c r="FW44" s="59"/>
+      <c r="FX44" s="59"/>
+      <c r="FY44" s="59"/>
+      <c r="FZ44" s="59"/>
+      <c r="GA44" s="59"/>
+      <c r="GB44" s="59"/>
+      <c r="GC44" s="59"/>
+      <c r="GD44" s="59"/>
+      <c r="GE44" s="59"/>
+      <c r="GF44" s="59"/>
+      <c r="GG44" s="59"/>
+      <c r="GH44" s="59"/>
+      <c r="GI44" s="59"/>
+      <c r="GJ44" s="59"/>
+      <c r="GK44" s="59"/>
+      <c r="GL44" s="59"/>
+      <c r="GM44" s="59"/>
+      <c r="GN44" s="59"/>
+      <c r="GO44" s="59"/>
+      <c r="GP44" s="59"/>
+      <c r="GQ44" s="60"/>
+      <c r="GR44" s="60"/>
+      <c r="GS44" s="60"/>
+      <c r="GT44" s="60"/>
+      <c r="GU44" s="60"/>
+      <c r="GV44" s="71"/>
+      <c r="GW44" s="71"/>
+      <c r="GX44" s="61"/>
     </row>
     <row r="45" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CG45" s="66" t="s">
+      <c r="CG45" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="CH45" s="74"/>
+      <c r="CH45" s="70"/>
       <c r="CI45" s="30"/>
       <c r="CJ45" s="30"/>
       <c r="CK45" s="30"/>
@@ -10544,378 +10544,378 @@
       <c r="GN45" s="30"/>
       <c r="GO45" s="30"/>
       <c r="GP45" s="30"/>
-      <c r="GQ45" s="76"/>
-      <c r="GR45" s="76"/>
-      <c r="GS45" s="76"/>
-      <c r="GT45" s="76"/>
-      <c r="GU45" s="76"/>
+      <c r="GQ45" s="72"/>
+      <c r="GR45" s="72"/>
+      <c r="GS45" s="72"/>
+      <c r="GT45" s="72"/>
+      <c r="GU45" s="72"/>
       <c r="GV45" s="35"/>
       <c r="GW45" s="35"/>
       <c r="GX45" s="31"/>
     </row>
     <row r="46" spans="85:206" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CG46" s="23"/>
-      <c r="CH46" s="70">
+      <c r="CH46" s="66">
         <v>0</v>
       </c>
-      <c r="CI46" s="71">
+      <c r="CI46" s="67">
         <v>1</v>
       </c>
-      <c r="CJ46" s="71">
+      <c r="CJ46" s="67">
         <v>2</v>
       </c>
-      <c r="CK46" s="71">
+      <c r="CK46" s="67">
         <v>3</v>
       </c>
-      <c r="CL46" s="71">
+      <c r="CL46" s="67">
         <v>4</v>
       </c>
-      <c r="CM46" s="71">
+      <c r="CM46" s="67">
         <v>5</v>
       </c>
-      <c r="CN46" s="71">
+      <c r="CN46" s="67">
         <v>6</v>
       </c>
-      <c r="CO46" s="71">
+      <c r="CO46" s="67">
         <v>7</v>
       </c>
-      <c r="CP46" s="71">
+      <c r="CP46" s="67">
         <v>8</v>
       </c>
-      <c r="CQ46" s="71">
+      <c r="CQ46" s="67">
         <v>9</v>
       </c>
-      <c r="CR46" s="71">
+      <c r="CR46" s="67">
         <v>10</v>
       </c>
-      <c r="CS46" s="71">
+      <c r="CS46" s="67">
         <v>11</v>
       </c>
-      <c r="CT46" s="71">
+      <c r="CT46" s="67">
         <v>12</v>
       </c>
-      <c r="CU46" s="71">
+      <c r="CU46" s="67">
         <v>13</v>
       </c>
-      <c r="CV46" s="71">
+      <c r="CV46" s="67">
         <v>14</v>
       </c>
-      <c r="CW46" s="71">
+      <c r="CW46" s="67">
         <v>15</v>
       </c>
-      <c r="CX46" s="71">
+      <c r="CX46" s="67">
         <v>16</v>
       </c>
-      <c r="CY46" s="71">
+      <c r="CY46" s="67">
         <v>17</v>
       </c>
-      <c r="CZ46" s="71">
+      <c r="CZ46" s="67">
         <v>18</v>
       </c>
-      <c r="DA46" s="71">
+      <c r="DA46" s="67">
         <v>19</v>
       </c>
-      <c r="DB46" s="71">
+      <c r="DB46" s="67">
         <v>20</v>
       </c>
-      <c r="DC46" s="71">
+      <c r="DC46" s="67">
         <v>21</v>
       </c>
-      <c r="DD46" s="71">
+      <c r="DD46" s="67">
         <v>22</v>
       </c>
-      <c r="DE46" s="71">
+      <c r="DE46" s="67">
         <v>23</v>
       </c>
-      <c r="DF46" s="71">
+      <c r="DF46" s="67">
         <v>24</v>
       </c>
-      <c r="DG46" s="71">
+      <c r="DG46" s="67">
         <v>25</v>
       </c>
-      <c r="DH46" s="71">
+      <c r="DH46" s="67">
         <v>26</v>
       </c>
-      <c r="DI46" s="71">
+      <c r="DI46" s="67">
         <v>27</v>
       </c>
-      <c r="DJ46" s="71">
+      <c r="DJ46" s="67">
         <v>28</v>
       </c>
-      <c r="DK46" s="71">
+      <c r="DK46" s="67">
         <v>29</v>
       </c>
-      <c r="DL46" s="71">
+      <c r="DL46" s="67">
         <v>30</v>
       </c>
-      <c r="DM46" s="71">
+      <c r="DM46" s="67">
         <v>31</v>
       </c>
-      <c r="DN46" s="71">
+      <c r="DN46" s="67">
         <v>32</v>
       </c>
-      <c r="DO46" s="71">
+      <c r="DO46" s="67">
         <v>33</v>
       </c>
-      <c r="DP46" s="71">
+      <c r="DP46" s="67">
         <v>34</v>
       </c>
-      <c r="DQ46" s="71">
+      <c r="DQ46" s="67">
         <v>35</v>
       </c>
-      <c r="DR46" s="71">
+      <c r="DR46" s="67">
         <v>36</v>
       </c>
-      <c r="DS46" s="71">
+      <c r="DS46" s="67">
         <v>37</v>
       </c>
-      <c r="DT46" s="71">
+      <c r="DT46" s="67">
         <v>38</v>
       </c>
-      <c r="DU46" s="71">
+      <c r="DU46" s="67">
         <v>39</v>
       </c>
-      <c r="DV46" s="71">
+      <c r="DV46" s="67">
         <v>40</v>
       </c>
-      <c r="DW46" s="71">
+      <c r="DW46" s="67">
         <v>41</v>
       </c>
-      <c r="DX46" s="71">
+      <c r="DX46" s="67">
         <v>42</v>
       </c>
-      <c r="DY46" s="71">
+      <c r="DY46" s="67">
         <v>43</v>
       </c>
-      <c r="DZ46" s="71">
+      <c r="DZ46" s="67">
         <v>44</v>
       </c>
-      <c r="EA46" s="71">
+      <c r="EA46" s="67">
         <v>45</v>
       </c>
-      <c r="EB46" s="71">
+      <c r="EB46" s="67">
         <v>46</v>
       </c>
-      <c r="EC46" s="71">
+      <c r="EC46" s="67">
         <v>47</v>
       </c>
-      <c r="ED46" s="71">
+      <c r="ED46" s="67">
         <v>48</v>
       </c>
-      <c r="EE46" s="71">
+      <c r="EE46" s="67">
         <v>49</v>
       </c>
-      <c r="EF46" s="71">
+      <c r="EF46" s="67">
         <v>50</v>
       </c>
-      <c r="EG46" s="71">
+      <c r="EG46" s="67">
         <v>51</v>
       </c>
-      <c r="EH46" s="71">
+      <c r="EH46" s="67">
         <v>52</v>
       </c>
-      <c r="EI46" s="71">
+      <c r="EI46" s="67">
         <v>53</v>
       </c>
-      <c r="EJ46" s="71">
+      <c r="EJ46" s="67">
         <v>54</v>
       </c>
-      <c r="EK46" s="71">
+      <c r="EK46" s="67">
         <v>55</v>
       </c>
-      <c r="EL46" s="71">
+      <c r="EL46" s="67">
         <v>56</v>
       </c>
-      <c r="EM46" s="71">
+      <c r="EM46" s="67">
         <v>57</v>
       </c>
-      <c r="EN46" s="71">
+      <c r="EN46" s="67">
         <v>58</v>
       </c>
-      <c r="EO46" s="71">
+      <c r="EO46" s="67">
         <v>59</v>
       </c>
-      <c r="EP46" s="71">
+      <c r="EP46" s="67">
         <v>60</v>
       </c>
-      <c r="EQ46" s="71">
+      <c r="EQ46" s="67">
         <v>61</v>
       </c>
-      <c r="ER46" s="71">
+      <c r="ER46" s="67">
         <v>62</v>
       </c>
-      <c r="ES46" s="71">
+      <c r="ES46" s="67">
         <v>63</v>
       </c>
-      <c r="ET46" s="71">
+      <c r="ET46" s="67">
         <v>64</v>
       </c>
-      <c r="EU46" s="71">
+      <c r="EU46" s="67">
         <v>65</v>
       </c>
-      <c r="EV46" s="71">
+      <c r="EV46" s="67">
         <v>66</v>
       </c>
-      <c r="EW46" s="71">
+      <c r="EW46" s="67">
         <v>67</v>
       </c>
-      <c r="EX46" s="71">
+      <c r="EX46" s="67">
         <v>68</v>
       </c>
-      <c r="EY46" s="71">
+      <c r="EY46" s="67">
         <v>69</v>
       </c>
-      <c r="EZ46" s="71">
+      <c r="EZ46" s="67">
         <v>70</v>
       </c>
-      <c r="FA46" s="71">
+      <c r="FA46" s="67">
         <v>71</v>
       </c>
-      <c r="FB46" s="71">
+      <c r="FB46" s="67">
         <v>72</v>
       </c>
-      <c r="FC46" s="71">
+      <c r="FC46" s="67">
         <v>73</v>
       </c>
-      <c r="FD46" s="71">
+      <c r="FD46" s="67">
         <v>74</v>
       </c>
-      <c r="FE46" s="71">
+      <c r="FE46" s="67">
         <v>75</v>
       </c>
-      <c r="FF46" s="71">
+      <c r="FF46" s="67">
         <v>76</v>
       </c>
-      <c r="FG46" s="71">
+      <c r="FG46" s="67">
         <v>77</v>
       </c>
-      <c r="FH46" s="71">
+      <c r="FH46" s="67">
         <v>78</v>
       </c>
-      <c r="FI46" s="71">
+      <c r="FI46" s="67">
         <v>79</v>
       </c>
-      <c r="FJ46" s="71">
+      <c r="FJ46" s="67">
         <v>80</v>
       </c>
-      <c r="FK46" s="71">
+      <c r="FK46" s="67">
         <v>81</v>
       </c>
-      <c r="FL46" s="71">
+      <c r="FL46" s="67">
         <v>82</v>
       </c>
-      <c r="FM46" s="71">
+      <c r="FM46" s="67">
         <v>83</v>
       </c>
-      <c r="FN46" s="71">
+      <c r="FN46" s="67">
         <v>84</v>
       </c>
-      <c r="FO46" s="71">
+      <c r="FO46" s="67">
         <v>85</v>
       </c>
-      <c r="FP46" s="71">
+      <c r="FP46" s="67">
         <v>86</v>
       </c>
-      <c r="FQ46" s="71">
+      <c r="FQ46" s="67">
         <v>87</v>
       </c>
-      <c r="FR46" s="71">
+      <c r="FR46" s="67">
         <v>88</v>
       </c>
-      <c r="FS46" s="71">
+      <c r="FS46" s="67">
         <v>89</v>
       </c>
-      <c r="FT46" s="71">
+      <c r="FT46" s="67">
         <v>90</v>
       </c>
-      <c r="FU46" s="71">
+      <c r="FU46" s="67">
         <v>91</v>
       </c>
-      <c r="FV46" s="71">
+      <c r="FV46" s="67">
         <v>92</v>
       </c>
-      <c r="FW46" s="71">
+      <c r="FW46" s="67">
         <v>93</v>
       </c>
-      <c r="FX46" s="71">
+      <c r="FX46" s="67">
         <v>94</v>
       </c>
-      <c r="FY46" s="71">
+      <c r="FY46" s="67">
         <v>95</v>
       </c>
-      <c r="FZ46" s="71">
+      <c r="FZ46" s="67">
         <v>96</v>
       </c>
-      <c r="GA46" s="71">
+      <c r="GA46" s="67">
         <v>97</v>
       </c>
-      <c r="GB46" s="71">
+      <c r="GB46" s="67">
         <v>98</v>
       </c>
-      <c r="GC46" s="71">
+      <c r="GC46" s="67">
         <v>99</v>
       </c>
-      <c r="GD46" s="72">
+      <c r="GD46" s="68">
         <v>100</v>
       </c>
-      <c r="GE46" s="72">
+      <c r="GE46" s="68">
         <v>101</v>
       </c>
-      <c r="GF46" s="72">
+      <c r="GF46" s="68">
         <v>102</v>
       </c>
-      <c r="GG46" s="72">
+      <c r="GG46" s="68">
         <v>103</v>
       </c>
-      <c r="GH46" s="72">
+      <c r="GH46" s="68">
         <v>104</v>
       </c>
-      <c r="GI46" s="72">
+      <c r="GI46" s="68">
         <v>105</v>
       </c>
-      <c r="GJ46" s="72">
+      <c r="GJ46" s="68">
         <v>106</v>
       </c>
-      <c r="GK46" s="72">
+      <c r="GK46" s="68">
         <v>107</v>
       </c>
-      <c r="GL46" s="72">
+      <c r="GL46" s="68">
         <v>108</v>
       </c>
-      <c r="GM46" s="72">
+      <c r="GM46" s="68">
         <v>109</v>
       </c>
-      <c r="GN46" s="72">
+      <c r="GN46" s="68">
         <v>110</v>
       </c>
-      <c r="GO46" s="72">
+      <c r="GO46" s="68">
         <v>111</v>
       </c>
-      <c r="GP46" s="72">
+      <c r="GP46" s="68">
         <v>112</v>
       </c>
-      <c r="GQ46" s="72">
+      <c r="GQ46" s="68">
         <v>113</v>
       </c>
-      <c r="GR46" s="72">
+      <c r="GR46" s="68">
         <v>114</v>
       </c>
-      <c r="GS46" s="72">
+      <c r="GS46" s="68">
         <v>115</v>
       </c>
-      <c r="GT46" s="72">
+      <c r="GT46" s="68">
         <v>116</v>
       </c>
-      <c r="GU46" s="72">
+      <c r="GU46" s="68">
         <v>117</v>
       </c>
-      <c r="GV46" s="72">
+      <c r="GV46" s="68">
         <v>118</v>
       </c>
-      <c r="GW46" s="72">
+      <c r="GW46" s="68">
         <v>119</v>
       </c>
-      <c r="GX46" s="73">
+      <c r="GX46" s="69">
         <v>120</v>
       </c>
     </row>
@@ -11685,12 +11685,12 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="41" t="s">
+      <c r="W10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
     </row>
     <row r="11" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="11">
@@ -12683,12 +12683,12 @@
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="43" t="s">
+      <c r="X15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
